--- a/app/assets/stylesheets/Steve Jobs (1).xlsx
+++ b/app/assets/stylesheets/Steve Jobs (1).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="Steve Jobs" sheetId="1" r:id="rId4"/>
+    <sheet name="Time 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -67,11 +67,475 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.18988764044944"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="28.389887640449437"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.389887640449437"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="4.189887640449439"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>E-Mail</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>Emp ID</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>Emp First Name</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>Emp Last Name</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>Emp E-mail</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt1</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt2</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt3</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt1</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt2</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt3</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt1</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt2</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt3</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt1</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt2</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>q1_opt3</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt1</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt2</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>q2_opt3</t>
+        </is>
+      </c>
+      <c r="Y1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt1</t>
+        </is>
+      </c>
+      <c r="Z1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt2</t>
+        </is>
+      </c>
+      <c r="AA1" s="0" t="inlineStr">
+        <is>
+          <t>q3_opt3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Steve </t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Jobs</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>steve@apple.com</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Manager</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>Choice 1</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>Choice 2</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>Choice 3</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>Check 1</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>Check 2</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="inlineStr">
+        <is>
+          <t>Check 3</t>
+        </is>
+      </c>
+      <c r="P2" s="0" t="inlineStr">
+        <is>
+          <t>Stressed out?</t>
+        </is>
+      </c>
+      <c r="Q2" s="0" t="inlineStr">
+        <is>
+          <t>Relaxed?</t>
+        </is>
+      </c>
+      <c r="R2" s="0" t="inlineStr">
+        <is>
+          <t>In pain?</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>s@s.com</t>
+        </is>
+      </c>
+      <c r="J3" s="2">
+        <v>42707.962511499216</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" s="2">
+        <v>42707.97142585126</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Another one of Steve's</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>Employees</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>eee@e.com</t>
+        </is>
+      </c>
+      <c r="J4" s="2">
+        <v>42707.96312438869</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="2">
+        <v>42707.97153375884</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>
